--- a/data/met.xlsx
+++ b/data/met.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/jaspreet/oab/oab/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspkaur\Google Drive\Metagenomics\oab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B69B5AC-D368-F848-9CBB-CBC26B6A75A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99C07C-150A-4876-8F35-4306AACB240D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="860" windowWidth="31720" windowHeight="21480" xr2:uid="{029B8163-4B66-436A-B8B0-D3C906A7F2BD}"/>
+    <workbookView xWindow="11535" yWindow="855" windowWidth="31725" windowHeight="21480" xr2:uid="{029B8163-4B66-436A-B8B0-D3C906A7F2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$320</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$320</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="370">
   <si>
     <t>IA13V</t>
   </si>
@@ -1126,9 +1126,6 @@
   </si>
   <si>
     <t>No Orchid</t>
-  </si>
-  <si>
-    <t>small</t>
   </si>
   <si>
     <t>large</t>
@@ -2019,32 +2016,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09F7DE5-F184-4FDE-B0D9-D09CD4D7D25E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D327" sqref="D327"/>
+      <selection pane="topRight" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>294</v>
       </c>
@@ -2085,7 +2081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -2112,7 +2108,7 @@
         <v>291</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="5" t="s">
@@ -2122,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -2149,7 +2145,7 @@
         <v>291</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="5" t="s">
@@ -2159,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -2196,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="5" t="s">
@@ -2233,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -2260,7 +2256,7 @@
         <v>291</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="5" t="s">
@@ -2270,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -2297,7 +2293,7 @@
         <v>291</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="5" t="s">
@@ -2307,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -2344,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2381,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -2455,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -2482,7 +2478,7 @@
         <v>291</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="5" t="s">
@@ -2492,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>291</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="5" t="s">
@@ -2529,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>222</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="5" t="s">
@@ -2566,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>222</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="5" t="s">
@@ -2603,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -2667,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="5" t="s">
@@ -2677,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -2704,7 +2700,7 @@
         <v>291</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="5" t="s">
@@ -2714,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -2788,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -2825,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>291</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="5" t="s">
@@ -2862,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -2889,7 +2885,7 @@
         <v>291</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="5" t="s">
@@ -2899,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -2973,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -3010,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -3047,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>36</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="5" t="s">
@@ -3084,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -3111,7 +3107,7 @@
         <v>36</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="5" t="s">
@@ -3121,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
@@ -3148,7 +3144,7 @@
         <v>222</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="5" t="s">
@@ -3158,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -3195,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -3232,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -3269,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -3296,7 +3292,7 @@
         <v>222</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="5" t="s">
@@ -3306,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -3333,7 +3329,7 @@
         <v>222</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="5" t="s">
@@ -3343,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -3380,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>291</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="5" t="s">
@@ -3454,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
@@ -3481,7 +3477,7 @@
         <v>291</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="5" t="s">
@@ -3491,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -3555,7 +3551,7 @@
         <v>222</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="5" t="s">
@@ -3565,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -3592,7 +3588,7 @@
         <v>291</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="5" t="s">
@@ -3602,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -3629,7 +3625,7 @@
         <v>291</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="5" t="s">
@@ -3639,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -3676,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -3713,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -3750,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -3787,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
@@ -3814,7 +3810,7 @@
         <v>291</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="5" t="s">
@@ -3824,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -3851,7 +3847,7 @@
         <v>291</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="5" t="s">
@@ -3861,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
@@ -3888,7 +3884,7 @@
         <v>222</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="5" t="s">
@@ -3898,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -3925,7 +3921,7 @@
         <v>222</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="5" t="s">
@@ -3935,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -3972,7 +3968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>291</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="5" t="s">
@@ -4009,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>97</v>
       </c>
@@ -4036,7 +4032,7 @@
         <v>291</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="5" t="s">
@@ -4046,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -4083,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>99</v>
       </c>
@@ -4120,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -4157,7 +4153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>101</v>
       </c>
@@ -4184,7 +4180,7 @@
         <v>291</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="5" t="s">
@@ -4194,7 +4190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -4221,7 +4217,7 @@
         <v>291</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="5" t="s">
@@ -4231,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>103</v>
       </c>
@@ -4268,7 +4264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
@@ -4305,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
@@ -4379,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>107</v>
       </c>
@@ -4406,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="5" t="s">
@@ -4416,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>108</v>
       </c>
@@ -4443,7 +4439,7 @@
         <v>36</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="5" t="s">
@@ -4453,7 +4449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>109</v>
       </c>
@@ -4480,7 +4476,7 @@
         <v>222</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="5" t="s">
@@ -4490,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>110</v>
       </c>
@@ -4527,7 +4523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>111</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>112</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>113</v>
       </c>
@@ -4628,7 +4624,7 @@
         <v>222</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="5" t="s">
@@ -4638,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>114</v>
       </c>
@@ -4665,7 +4661,7 @@
         <v>222</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="5" t="s">
@@ -4675,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
@@ -4712,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>116</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>225</v>
       </c>
@@ -4775,7 +4771,9 @@
         <v>2013</v>
       </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K74" s="3"/>
       <c r="L74" s="5" t="s">
         <v>208</v>
@@ -4784,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>226</v>
       </c>
@@ -4810,7 +4808,9 @@
         <v>2013</v>
       </c>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K75" s="3"/>
       <c r="L75" s="5" t="s">
         <v>208</v>
@@ -4819,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>227</v>
       </c>
@@ -4845,7 +4845,9 @@
         <v>2013</v>
       </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K76" s="3"/>
       <c r="L76" s="5" t="s">
         <v>208</v>
@@ -4854,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>228</v>
       </c>
@@ -4880,7 +4882,9 @@
         <v>2013</v>
       </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K77" s="3"/>
       <c r="L77" s="5" t="s">
         <v>208</v>
@@ -4889,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>229</v>
       </c>
@@ -4915,7 +4919,9 @@
         <v>2013</v>
       </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K78" s="3"/>
       <c r="L78" s="5" t="s">
         <v>208</v>
@@ -4924,7 +4930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>230</v>
       </c>
@@ -4950,7 +4956,9 @@
         <v>2013</v>
       </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="5" t="s">
         <v>208</v>
@@ -4959,7 +4967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>231</v>
       </c>
@@ -4985,7 +4993,9 @@
         <v>2013</v>
       </c>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K80" s="3"/>
       <c r="L80" s="5" t="s">
         <v>208</v>
@@ -4994,7 +5004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>232</v>
       </c>
@@ -5020,7 +5030,9 @@
         <v>2013</v>
       </c>
       <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K81" s="3"/>
       <c r="L81" s="5" t="s">
         <v>208</v>
@@ -5029,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>233</v>
       </c>
@@ -5055,7 +5067,9 @@
         <v>2013</v>
       </c>
       <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K82" s="3"/>
       <c r="L82" s="5" t="s">
         <v>208</v>
@@ -5064,7 +5078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>234</v>
       </c>
@@ -5090,7 +5104,9 @@
         <v>2013</v>
       </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K83" s="3"/>
       <c r="L83" s="5" t="s">
         <v>208</v>
@@ -5099,7 +5115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>235</v>
       </c>
@@ -5125,7 +5141,9 @@
         <v>2013</v>
       </c>
       <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="J84" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K84" s="3"/>
       <c r="L84" s="5" t="s">
         <v>208</v>
@@ -5134,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>236</v>
       </c>
@@ -5160,7 +5178,9 @@
         <v>2013</v>
       </c>
       <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="J85" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K85" s="3"/>
       <c r="L85" s="5" t="s">
         <v>208</v>
@@ -5169,7 +5189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>237</v>
       </c>
@@ -5195,7 +5215,9 @@
         <v>2014</v>
       </c>
       <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
+      <c r="J86" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K86" s="5"/>
       <c r="L86" s="5" t="s">
         <v>208</v>
@@ -5204,7 +5226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>238</v>
       </c>
@@ -5230,7 +5252,9 @@
         <v>2014</v>
       </c>
       <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+      <c r="J87" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5" t="s">
         <v>208</v>
@@ -5239,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>117</v>
       </c>
@@ -5259,7 +5283,9 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="J88" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K88" s="6"/>
       <c r="L88" s="5" t="s">
         <v>208</v>
@@ -5268,12 +5294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C89" s="10">
         <v>12.55</v>
@@ -5288,7 +5314,9 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="J89" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K89" s="6"/>
       <c r="L89" s="5" t="s">
         <v>208</v>
@@ -5297,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +5348,9 @@
         <v>2013</v>
       </c>
       <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K90" s="3"/>
       <c r="L90" s="5" t="s">
         <v>208</v>
@@ -5329,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>1</v>
       </c>
@@ -5352,7 +5382,9 @@
         <v>2013</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="5" t="s">
         <v>208</v>
@@ -5361,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
@@ -5384,7 +5416,9 @@
         <v>2013</v>
       </c>
       <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="5" t="s">
         <v>208</v>
@@ -5393,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -5416,7 +5450,9 @@
         <v>2013</v>
       </c>
       <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="5" t="s">
         <v>208</v>
@@ -5425,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>4</v>
       </c>
@@ -5448,7 +5484,9 @@
         <v>2013</v>
       </c>
       <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K94" s="3"/>
       <c r="L94" s="5" t="s">
         <v>208</v>
@@ -5457,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -5480,7 +5518,9 @@
         <v>2013</v>
       </c>
       <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="5" t="s">
         <v>208</v>
@@ -5489,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>239</v>
       </c>
@@ -5512,7 +5552,9 @@
         <v>2013</v>
       </c>
       <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K96" s="3"/>
       <c r="L96" s="5" t="s">
         <v>208</v>
@@ -5521,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>240</v>
       </c>
@@ -5544,7 +5586,9 @@
         <v>2013</v>
       </c>
       <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K97" s="3"/>
       <c r="L97" s="5" t="s">
         <v>208</v>
@@ -5553,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>241</v>
       </c>
@@ -5576,7 +5620,9 @@
         <v>2013</v>
       </c>
       <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K98" s="3"/>
       <c r="L98" s="5" t="s">
         <v>208</v>
@@ -5585,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>242</v>
       </c>
@@ -5608,7 +5654,9 @@
         <v>2013</v>
       </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K99" s="3"/>
       <c r="L99" s="5" t="s">
         <v>208</v>
@@ -5617,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>243</v>
       </c>
@@ -5640,7 +5688,9 @@
         <v>2013</v>
       </c>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K100" s="3"/>
       <c r="L100" s="5" t="s">
         <v>208</v>
@@ -5649,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>244</v>
       </c>
@@ -5672,7 +5722,9 @@
         <v>2013</v>
       </c>
       <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="J101" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K101" s="3"/>
       <c r="L101" s="5" t="s">
         <v>208</v>
@@ -5681,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>245</v>
       </c>
@@ -5707,7 +5759,9 @@
         <v>2013</v>
       </c>
       <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="J102" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K102" s="3"/>
       <c r="L102" s="5" t="s">
         <v>208</v>
@@ -5716,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>246</v>
       </c>
@@ -5742,7 +5796,9 @@
         <v>2013</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="J103" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K103" s="3"/>
       <c r="L103" s="5" t="s">
         <v>208</v>
@@ -5751,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>247</v>
       </c>
@@ -5777,7 +5833,9 @@
         <v>2013</v>
       </c>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="L104" s="5" t="s">
         <v>208</v>
@@ -5786,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>248</v>
       </c>
@@ -5812,7 +5870,9 @@
         <v>2013</v>
       </c>
       <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="J105" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K105" s="3"/>
       <c r="L105" s="5" t="s">
         <v>208</v>
@@ -5821,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>249</v>
       </c>
@@ -5847,7 +5907,9 @@
         <v>2013</v>
       </c>
       <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="J106" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K106" s="3"/>
       <c r="L106" s="5" t="s">
         <v>208</v>
@@ -5856,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>250</v>
       </c>
@@ -5882,7 +5944,9 @@
         <v>2013</v>
       </c>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K107" s="3"/>
       <c r="L107" s="5" t="s">
         <v>208</v>
@@ -5891,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>251</v>
       </c>
@@ -5917,7 +5981,9 @@
         <v>2013</v>
       </c>
       <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K108" s="3"/>
       <c r="L108" s="5" t="s">
         <v>208</v>
@@ -5926,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>252</v>
       </c>
@@ -5952,7 +6018,9 @@
         <v>2013</v>
       </c>
       <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K109" s="3"/>
       <c r="L109" s="5" t="s">
         <v>208</v>
@@ -5961,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>253</v>
       </c>
@@ -5987,7 +6055,9 @@
         <v>2013</v>
       </c>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K110" s="3"/>
       <c r="L110" s="5" t="s">
         <v>208</v>
@@ -5996,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>254</v>
       </c>
@@ -6022,7 +6092,9 @@
         <v>2013</v>
       </c>
       <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="L111" s="5" t="s">
         <v>208</v>
@@ -6031,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>255</v>
       </c>
@@ -6057,7 +6129,9 @@
         <v>2013</v>
       </c>
       <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="J112" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K112" s="3"/>
       <c r="L112" s="5" t="s">
         <v>208</v>
@@ -6066,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>256</v>
       </c>
@@ -6092,7 +6166,9 @@
         <v>2013</v>
       </c>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K113" s="3"/>
       <c r="L113" s="5" t="s">
         <v>208</v>
@@ -6101,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -6124,7 +6200,9 @@
         <v>2013</v>
       </c>
       <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="5" t="s">
         <v>208</v>
@@ -6133,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -6156,7 +6234,9 @@
         <v>2013</v>
       </c>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="5" t="s">
         <v>208</v>
@@ -6165,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>119</v>
       </c>
@@ -6184,7 +6264,9 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="J116" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K116" s="6"/>
       <c r="L116" s="5" t="s">
         <v>208</v>
@@ -6193,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6298,9 @@
         <v>2013</v>
       </c>
       <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="J117" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K117" s="3"/>
       <c r="L117" s="5" t="s">
         <v>208</v>
@@ -6225,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
@@ -6248,7 +6332,9 @@
         <v>2013</v>
       </c>
       <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="J118" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="5" t="s">
         <v>208</v>
@@ -6257,12 +6343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C119" s="9">
         <v>11.875</v>
@@ -6276,7 +6362,9 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
+      <c r="J119" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K119" s="6"/>
       <c r="L119" s="5" t="s">
         <v>208</v>
@@ -6285,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -6308,7 +6396,9 @@
         <v>2013</v>
       </c>
       <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="J120" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K120" s="3"/>
       <c r="L120" s="5" t="s">
         <v>208</v>
@@ -6317,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -6340,7 +6430,9 @@
         <v>2013</v>
       </c>
       <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="J121" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K121" s="3"/>
       <c r="L121" s="5" t="s">
         <v>208</v>
@@ -6349,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -6372,7 +6464,9 @@
         <v>2013</v>
       </c>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="J122" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="5" t="s">
         <v>208</v>
@@ -6381,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -6404,7 +6498,9 @@
         <v>2014</v>
       </c>
       <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="J123" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K123" s="3"/>
       <c r="L123" s="5" t="s">
         <v>208</v>
@@ -6413,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -6436,7 +6532,9 @@
         <v>2014</v>
       </c>
       <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="J124" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K124" s="3"/>
       <c r="L124" s="5" t="s">
         <v>208</v>
@@ -6445,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -6468,7 +6566,9 @@
         <v>2014</v>
       </c>
       <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="J125" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K125" s="3"/>
       <c r="L125" s="5" t="s">
         <v>208</v>
@@ -6477,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -6500,7 +6600,9 @@
         <v>2014</v>
       </c>
       <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="J126" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K126" s="3"/>
       <c r="L126" s="5" t="s">
         <v>208</v>
@@ -6509,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -6532,7 +6634,9 @@
         <v>2014</v>
       </c>
       <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="J127" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K127" s="3"/>
       <c r="L127" s="5" t="s">
         <v>208</v>
@@ -6541,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -6564,7 +6668,9 @@
         <v>2014</v>
       </c>
       <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="J128" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K128" s="3"/>
       <c r="L128" s="5" t="s">
         <v>208</v>
@@ -6573,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>257</v>
       </c>
@@ -6596,7 +6702,9 @@
         <v>2014</v>
       </c>
       <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K129" s="3"/>
       <c r="L129" s="5" t="s">
         <v>208</v>
@@ -6605,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
@@ -6628,7 +6736,9 @@
         <v>2014</v>
       </c>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="J130" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K130" s="3"/>
       <c r="L130" s="5" t="s">
         <v>208</v>
@@ -6637,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>259</v>
       </c>
@@ -6660,7 +6770,9 @@
         <v>2014</v>
       </c>
       <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="J131" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="5" t="s">
         <v>208</v>
@@ -6669,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>260</v>
       </c>
@@ -6692,7 +6804,9 @@
         <v>2014</v>
       </c>
       <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="J132" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K132" s="3"/>
       <c r="L132" s="5" t="s">
         <v>208</v>
@@ -6701,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>261</v>
       </c>
@@ -6724,7 +6838,9 @@
         <v>2014</v>
       </c>
       <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="J133" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="5" t="s">
         <v>208</v>
@@ -6733,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>262</v>
       </c>
@@ -6759,7 +6875,9 @@
         <v>2014</v>
       </c>
       <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+      <c r="J134" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K134" s="5"/>
       <c r="L134" s="5" t="s">
         <v>208</v>
@@ -6768,7 +6886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>263</v>
       </c>
@@ -6794,7 +6912,9 @@
         <v>2014</v>
       </c>
       <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="J135" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K135" s="5"/>
       <c r="L135" s="5" t="s">
         <v>208</v>
@@ -6803,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>264</v>
       </c>
@@ -6829,7 +6949,9 @@
         <v>2014</v>
       </c>
       <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
+      <c r="J136" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K136" s="5"/>
       <c r="L136" s="5" t="s">
         <v>208</v>
@@ -6838,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>265</v>
       </c>
@@ -6864,7 +6986,9 @@
         <v>2014</v>
       </c>
       <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="J137" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K137" s="5"/>
       <c r="L137" s="5" t="s">
         <v>208</v>
@@ -6873,7 +6997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>266</v>
       </c>
@@ -6899,7 +7023,9 @@
         <v>2014</v>
       </c>
       <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="J138" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K138" s="5"/>
       <c r="L138" s="5" t="s">
         <v>208</v>
@@ -6908,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>267</v>
       </c>
@@ -6934,7 +7060,9 @@
         <v>2014</v>
       </c>
       <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
+      <c r="J139" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K139" s="5"/>
       <c r="L139" s="5" t="s">
         <v>208</v>
@@ -6943,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>268</v>
       </c>
@@ -6969,7 +7097,9 @@
         <v>2014</v>
       </c>
       <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="J140" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K140" s="5"/>
       <c r="L140" s="5" t="s">
         <v>208</v>
@@ -6978,7 +7108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>269</v>
       </c>
@@ -7004,7 +7134,9 @@
         <v>2014</v>
       </c>
       <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
+      <c r="J141" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K141" s="5"/>
       <c r="L141" s="5" t="s">
         <v>208</v>
@@ -7013,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>270</v>
       </c>
@@ -7039,7 +7171,9 @@
         <v>2014</v>
       </c>
       <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+      <c r="J142" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K142" s="5"/>
       <c r="L142" s="5" t="s">
         <v>208</v>
@@ -7048,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>271</v>
       </c>
@@ -7074,7 +7208,9 @@
         <v>2014</v>
       </c>
       <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
+      <c r="J143" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K143" s="5"/>
       <c r="L143" s="5" t="s">
         <v>208</v>
@@ -7083,7 +7219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>272</v>
       </c>
@@ -7109,7 +7245,9 @@
         <v>2014</v>
       </c>
       <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
+      <c r="J144" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K144" s="5"/>
       <c r="L144" s="5" t="s">
         <v>208</v>
@@ -7118,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>273</v>
       </c>
@@ -7144,7 +7282,9 @@
         <v>2014</v>
       </c>
       <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
+      <c r="J145" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K145" s="5"/>
       <c r="L145" s="5" t="s">
         <v>208</v>
@@ -7153,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>274</v>
       </c>
@@ -7179,7 +7319,9 @@
         <v>2014</v>
       </c>
       <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
+      <c r="J146" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K146" s="5"/>
       <c r="L146" s="5" t="s">
         <v>208</v>
@@ -7188,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>19</v>
       </c>
@@ -7211,7 +7353,9 @@
         <v>2014</v>
       </c>
       <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
+      <c r="J147" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K147" s="5"/>
       <c r="L147" s="5" t="s">
         <v>208</v>
@@ -7220,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>121</v>
       </c>
@@ -7243,7 +7387,9 @@
         <v>2014</v>
       </c>
       <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
+      <c r="J148" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K148" s="5"/>
       <c r="L148" s="5" t="s">
         <v>208</v>
@@ -7252,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -7275,7 +7421,9 @@
         <v>2014</v>
       </c>
       <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
+      <c r="J149" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K149" s="5"/>
       <c r="L149" s="5" t="s">
         <v>208</v>
@@ -7284,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -7307,7 +7455,9 @@
         <v>2014</v>
       </c>
       <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="J150" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K150" s="3"/>
       <c r="L150" s="5" t="s">
         <v>208</v>
@@ -7316,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -7339,7 +7489,9 @@
         <v>2014</v>
       </c>
       <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="J151" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K151" s="3"/>
       <c r="L151" s="5" t="s">
         <v>208</v>
@@ -7348,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -7371,7 +7523,9 @@
         <v>2014</v>
       </c>
       <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="J152" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K152" s="3"/>
       <c r="L152" s="5" t="s">
         <v>208</v>
@@ -7380,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>24</v>
       </c>
@@ -7403,7 +7557,9 @@
         <v>2014</v>
       </c>
       <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="J153" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K153" s="3"/>
       <c r="L153" s="5" t="s">
         <v>208</v>
@@ -7412,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>25</v>
       </c>
@@ -7435,7 +7591,9 @@
         <v>2014</v>
       </c>
       <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K154" s="3"/>
       <c r="L154" s="5" t="s">
         <v>208</v>
@@ -7444,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>26</v>
       </c>
@@ -7467,7 +7625,9 @@
         <v>2014</v>
       </c>
       <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="J155" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K155" s="3"/>
       <c r="L155" s="5" t="s">
         <v>208</v>
@@ -7476,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>122</v>
       </c>
@@ -7499,7 +7659,9 @@
         <v>2014</v>
       </c>
       <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="J156" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K156" s="3"/>
       <c r="L156" s="5" t="s">
         <v>208</v>
@@ -7508,7 +7670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>123</v>
       </c>
@@ -7531,7 +7693,9 @@
         <v>2014</v>
       </c>
       <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="J157" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K157" s="3"/>
       <c r="L157" s="5" t="s">
         <v>208</v>
@@ -7540,7 +7704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>124</v>
       </c>
@@ -7563,7 +7727,9 @@
         <v>2014</v>
       </c>
       <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="J158" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K158" s="3"/>
       <c r="L158" s="5" t="s">
         <v>208</v>
@@ -7572,7 +7738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>125</v>
       </c>
@@ -7595,7 +7761,9 @@
         <v>2014</v>
       </c>
       <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
+      <c r="J159" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K159" s="3"/>
       <c r="L159" s="5" t="s">
         <v>208</v>
@@ -7604,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>126</v>
       </c>
@@ -7627,7 +7795,9 @@
         <v>2014</v>
       </c>
       <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="J160" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K160" s="3"/>
       <c r="L160" s="5" t="s">
         <v>208</v>
@@ -7636,7 +7806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>127</v>
       </c>
@@ -7659,7 +7829,9 @@
         <v>2014</v>
       </c>
       <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="J161" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="K161" s="3"/>
       <c r="L161" s="5" t="s">
         <v>208</v>
@@ -7668,7 +7840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>128</v>
       </c>
@@ -7691,7 +7863,9 @@
         <v>2013</v>
       </c>
       <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="J162" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K162" s="3"/>
       <c r="L162" s="5" t="s">
         <v>208</v>
@@ -7700,7 +7874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>129</v>
       </c>
@@ -7723,7 +7897,9 @@
         <v>2013</v>
       </c>
       <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="J163" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K163" s="3"/>
       <c r="L163" s="5" t="s">
         <v>208</v>
@@ -7732,7 +7908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>130</v>
       </c>
@@ -7755,7 +7931,9 @@
         <v>2013</v>
       </c>
       <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="J164" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K164" s="3"/>
       <c r="L164" s="5" t="s">
         <v>208</v>
@@ -7764,7 +7942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>131</v>
       </c>
@@ -7787,7 +7965,9 @@
         <v>2013</v>
       </c>
       <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="J165" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K165" s="3"/>
       <c r="L165" s="5" t="s">
         <v>208</v>
@@ -7796,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>132</v>
       </c>
@@ -7819,7 +7999,9 @@
         <v>2013</v>
       </c>
       <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="J166" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K166" s="3"/>
       <c r="L166" s="5" t="s">
         <v>208</v>
@@ -7828,7 +8010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>133</v>
       </c>
@@ -7851,7 +8033,9 @@
         <v>2013</v>
       </c>
       <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
+      <c r="J167" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K167" s="3"/>
       <c r="L167" s="5" t="s">
         <v>208</v>
@@ -7860,7 +8044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>275</v>
       </c>
@@ -7883,7 +8067,9 @@
         <v>2013</v>
       </c>
       <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K168" s="3"/>
       <c r="L168" s="5" t="s">
         <v>208</v>
@@ -7892,7 +8078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>276</v>
       </c>
@@ -7915,7 +8101,9 @@
         <v>2013</v>
       </c>
       <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
+      <c r="J169" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K169" s="3"/>
       <c r="L169" s="5" t="s">
         <v>208</v>
@@ -7924,7 +8112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>277</v>
       </c>
@@ -7947,7 +8135,9 @@
         <v>2013</v>
       </c>
       <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="J170" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K170" s="3"/>
       <c r="L170" s="5" t="s">
         <v>208</v>
@@ -7956,7 +8146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>278</v>
       </c>
@@ -7979,7 +8169,9 @@
         <v>2013</v>
       </c>
       <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="J171" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K171" s="3"/>
       <c r="L171" s="5" t="s">
         <v>208</v>
@@ -7988,7 +8180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>279</v>
       </c>
@@ -8011,7 +8203,9 @@
         <v>2013</v>
       </c>
       <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="J172" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K172" s="3"/>
       <c r="L172" s="5" t="s">
         <v>208</v>
@@ -8020,7 +8214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>280</v>
       </c>
@@ -8043,7 +8237,9 @@
         <v>2013</v>
       </c>
       <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="J173" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K173" s="3"/>
       <c r="L173" s="5" t="s">
         <v>208</v>
@@ -8052,7 +8248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>134</v>
       </c>
@@ -8075,7 +8271,9 @@
         <v>2014</v>
       </c>
       <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="J174" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K174" s="3"/>
       <c r="L174" s="5" t="s">
         <v>208</v>
@@ -8084,7 +8282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>135</v>
       </c>
@@ -8108,7 +8306,7 @@
         <v>291</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K175" s="5"/>
       <c r="L175" s="5" t="s">
@@ -8118,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>136</v>
       </c>
@@ -8152,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>137</v>
       </c>
@@ -8176,7 +8374,7 @@
         <v>222</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K177" s="5"/>
       <c r="L177" s="5" t="s">
@@ -8186,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>138</v>
       </c>
@@ -8210,7 +8408,7 @@
         <v>222</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5" t="s">
@@ -8220,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>139</v>
       </c>
@@ -8244,7 +8442,7 @@
         <v>291</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5" t="s">
@@ -8254,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>140</v>
       </c>
@@ -8288,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>141</v>
       </c>
@@ -8322,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>142</v>
       </c>
@@ -8346,7 +8544,7 @@
         <v>291</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K182" s="5"/>
       <c r="L182" s="5" t="s">
@@ -8356,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>143</v>
       </c>
@@ -8380,7 +8578,7 @@
         <v>222</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K183" s="5"/>
       <c r="L183" s="5" t="s">
@@ -8390,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>144</v>
       </c>
@@ -8424,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>145</v>
       </c>
@@ -8458,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>146</v>
       </c>
@@ -8482,7 +8680,7 @@
         <v>222</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K186" s="5"/>
       <c r="L186" s="5" t="s">
@@ -8492,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>147</v>
       </c>
@@ -8516,7 +8714,7 @@
         <v>222</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K187" s="5"/>
       <c r="L187" s="5" t="s">
@@ -8526,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>148</v>
       </c>
@@ -8550,7 +8748,7 @@
         <v>222</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K188" s="5"/>
       <c r="L188" s="5" t="s">
@@ -8560,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>149</v>
       </c>
@@ -8594,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>150</v>
       </c>
@@ -8618,7 +8816,7 @@
         <v>291</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K190" s="5"/>
       <c r="L190" s="5" t="s">
@@ -8628,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>151</v>
       </c>
@@ -8662,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>152</v>
       </c>
@@ -8696,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>153</v>
       </c>
@@ -8720,7 +8918,7 @@
         <v>291</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K193" s="5"/>
       <c r="L193" s="5" t="s">
@@ -8730,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>154</v>
       </c>
@@ -8764,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>155</v>
       </c>
@@ -8788,7 +8986,7 @@
         <v>291</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K195" s="5"/>
       <c r="L195" s="5" t="s">
@@ -8798,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>156</v>
       </c>
@@ -8832,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>157</v>
       </c>
@@ -8856,7 +9054,7 @@
         <v>222</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K197" s="5"/>
       <c r="L197" s="5" t="s">
@@ -8866,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>158</v>
       </c>
@@ -8901,7 +9099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>159</v>
       </c>
@@ -8936,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>160</v>
       </c>
@@ -8961,7 +9159,7 @@
         <v>222</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K200" s="5"/>
       <c r="L200" s="5" t="s">
@@ -8971,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>161</v>
       </c>
@@ -8996,7 +9194,7 @@
         <v>222</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K201" s="5"/>
       <c r="L201" s="5" t="s">
@@ -9006,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>162</v>
       </c>
@@ -9041,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>163</v>
       </c>
@@ -9076,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>164</v>
       </c>
@@ -9111,7 +9309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>165</v>
       </c>
@@ -9136,7 +9334,7 @@
         <v>222</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K205" s="5"/>
       <c r="L205" s="5" t="s">
@@ -9146,7 +9344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>166</v>
       </c>
@@ -9171,7 +9369,7 @@
         <v>222</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K206" s="5"/>
       <c r="L206" s="5" t="s">
@@ -9181,7 +9379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>167</v>
       </c>
@@ -9216,7 +9414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>168</v>
       </c>
@@ -9251,7 +9449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>169</v>
       </c>
@@ -9276,7 +9474,7 @@
         <v>291</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K209" s="5"/>
       <c r="L209" s="5" t="s">
@@ -9286,7 +9484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>170</v>
       </c>
@@ -9321,7 +9519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>171</v>
       </c>
@@ -9346,7 +9544,7 @@
         <v>222</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K211" s="5"/>
       <c r="L211" s="5" t="s">
@@ -9356,7 +9554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>172</v>
       </c>
@@ -9381,7 +9579,7 @@
         <v>222</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K212" s="5"/>
       <c r="L212" s="5" t="s">
@@ -9391,7 +9589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>173</v>
       </c>
@@ -9416,7 +9614,7 @@
         <v>291</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K213" s="5"/>
       <c r="L213" s="5" t="s">
@@ -9426,7 +9624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>174</v>
       </c>
@@ -9461,7 +9659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>175</v>
       </c>
@@ -9496,7 +9694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>176</v>
       </c>
@@ -9521,7 +9719,7 @@
         <v>291</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K216" s="5"/>
       <c r="L216" s="5" t="s">
@@ -9531,7 +9729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>177</v>
       </c>
@@ -9555,7 +9753,7 @@
         <v>222</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K217" s="5"/>
       <c r="L217" s="5" t="s">
@@ -9565,7 +9763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>178</v>
       </c>
@@ -9599,7 +9797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>179</v>
       </c>
@@ -9633,7 +9831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>180</v>
       </c>
@@ -9657,7 +9855,7 @@
         <v>222</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K220" s="5"/>
       <c r="L220" s="5" t="s">
@@ -9667,7 +9865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>181</v>
       </c>
@@ -9691,7 +9889,7 @@
         <v>222</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K221" s="5"/>
       <c r="L221" s="5" t="s">
@@ -9701,7 +9899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>182</v>
       </c>
@@ -9725,7 +9923,7 @@
         <v>222</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K222" s="5"/>
       <c r="L222" s="5" t="s">
@@ -9735,7 +9933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>183</v>
       </c>
@@ -9769,7 +9967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>184</v>
       </c>
@@ -9793,7 +9991,7 @@
         <v>291</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K224" s="5"/>
       <c r="L224" s="5" t="s">
@@ -9803,7 +10001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>185</v>
       </c>
@@ -9837,7 +10035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>186</v>
       </c>
@@ -9871,7 +10069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>187</v>
       </c>
@@ -9895,7 +10093,7 @@
         <v>291</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K227" s="5"/>
       <c r="L227" s="5" t="s">
@@ -9905,7 +10103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>188</v>
       </c>
@@ -9939,7 +10137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>189</v>
       </c>
@@ -9963,7 +10161,7 @@
         <v>291</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K229" s="5"/>
       <c r="L229" s="5" t="s">
@@ -9973,7 +10171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>190</v>
       </c>
@@ -10007,7 +10205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>191</v>
       </c>
@@ -10031,7 +10229,7 @@
         <v>222</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K231" s="5"/>
       <c r="L231" s="5" t="s">
@@ -10041,7 +10239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>192</v>
       </c>
@@ -10075,7 +10273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>193</v>
       </c>
@@ -10097,6 +10295,9 @@
       <c r="H233" s="3">
         <v>2013</v>
       </c>
+      <c r="J233" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L233" s="5" t="s">
         <v>208</v>
       </c>
@@ -10104,7 +10305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>194</v>
       </c>
@@ -10126,6 +10327,9 @@
       <c r="H234" s="3">
         <v>2013</v>
       </c>
+      <c r="J234" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L234" s="5" t="s">
         <v>208</v>
       </c>
@@ -10133,7 +10337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>195</v>
       </c>
@@ -10151,12 +10355,15 @@
       </c>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
+      <c r="J235" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L235" s="5" t="s">
         <v>209</v>
       </c>
       <c r="M235" s="6"/>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>196</v>
       </c>
@@ -10178,6 +10385,9 @@
       <c r="H236" s="3">
         <v>2013</v>
       </c>
+      <c r="J236" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L236" s="5" t="s">
         <v>208</v>
       </c>
@@ -10185,7 +10395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>197</v>
       </c>
@@ -10207,6 +10417,9 @@
       <c r="H237" s="3">
         <v>2013</v>
       </c>
+      <c r="J237" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L237" s="5" t="s">
         <v>208</v>
       </c>
@@ -10214,12 +10427,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C238" s="9">
         <v>11.5</v>
@@ -10232,12 +10445,15 @@
       </c>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
+      <c r="J238" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L238" s="5" t="s">
         <v>209</v>
       </c>
       <c r="M238" s="6"/>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>199</v>
       </c>
@@ -10259,6 +10475,9 @@
       <c r="H239" s="3">
         <v>2013</v>
       </c>
+      <c r="J239" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L239" s="5" t="s">
         <v>208</v>
       </c>
@@ -10266,7 +10485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>200</v>
       </c>
@@ -10288,6 +10507,9 @@
       <c r="H240" s="3">
         <v>2013</v>
       </c>
+      <c r="J240" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L240" s="5" t="s">
         <v>208</v>
       </c>
@@ -10295,7 +10517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>201</v>
       </c>
@@ -10317,6 +10539,9 @@
       <c r="H241" s="3">
         <v>2013</v>
       </c>
+      <c r="J241" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L241" s="5" t="s">
         <v>208</v>
       </c>
@@ -10324,7 +10549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>202</v>
       </c>
@@ -10346,6 +10571,9 @@
       <c r="H242" s="3">
         <v>2014</v>
       </c>
+      <c r="J242" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L242" s="5" t="s">
         <v>208</v>
       </c>
@@ -10353,7 +10581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>203</v>
       </c>
@@ -10375,6 +10603,9 @@
       <c r="H243" s="3">
         <v>2014</v>
       </c>
+      <c r="J243" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L243" s="5" t="s">
         <v>208</v>
       </c>
@@ -10382,7 +10613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>204</v>
       </c>
@@ -10404,6 +10635,9 @@
       <c r="H244" s="3">
         <v>2014</v>
       </c>
+      <c r="J244" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L244" s="5" t="s">
         <v>208</v>
       </c>
@@ -10411,7 +10645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>205</v>
       </c>
@@ -10433,6 +10667,9 @@
       <c r="H245" s="3">
         <v>2014</v>
       </c>
+      <c r="J245" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L245" s="5" t="s">
         <v>208</v>
       </c>
@@ -10440,7 +10677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>206</v>
       </c>
@@ -10462,6 +10699,9 @@
       <c r="H246" s="3">
         <v>2014</v>
       </c>
+      <c r="J246" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L246" s="5" t="s">
         <v>208</v>
       </c>
@@ -10469,7 +10709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>207</v>
       </c>
@@ -10491,6 +10731,9 @@
       <c r="H247" s="3">
         <v>2014</v>
       </c>
+      <c r="J247" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L247" s="5" t="s">
         <v>208</v>
       </c>
@@ -10498,7 +10741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>281</v>
       </c>
@@ -10520,6 +10763,9 @@
       <c r="H248" s="3">
         <v>2014</v>
       </c>
+      <c r="J248" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L248" s="5" t="s">
         <v>208</v>
       </c>
@@ -10527,7 +10773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>282</v>
       </c>
@@ -10549,6 +10795,9 @@
       <c r="H249" s="3">
         <v>2014</v>
       </c>
+      <c r="J249" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L249" s="5" t="s">
         <v>208</v>
       </c>
@@ -10556,7 +10805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>283</v>
       </c>
@@ -10578,6 +10827,9 @@
       <c r="H250" s="3">
         <v>2014</v>
       </c>
+      <c r="J250" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L250" s="5" t="s">
         <v>208</v>
       </c>
@@ -10585,7 +10837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>284</v>
       </c>
@@ -10607,6 +10859,9 @@
       <c r="H251" s="2">
         <v>2014</v>
       </c>
+      <c r="J251" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L251" s="5" t="s">
         <v>208</v>
       </c>
@@ -10614,7 +10869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>285</v>
       </c>
@@ -10636,6 +10891,9 @@
       <c r="H252" s="2">
         <v>2014</v>
       </c>
+      <c r="J252" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L252" s="5" t="s">
         <v>208</v>
       </c>
@@ -10643,7 +10901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>286</v>
       </c>
@@ -10668,6 +10926,9 @@
       <c r="H253" s="5">
         <v>2014</v>
       </c>
+      <c r="J253" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L253" s="5" t="s">
         <v>208</v>
       </c>
@@ -10675,7 +10936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>287</v>
       </c>
@@ -10700,6 +10961,9 @@
       <c r="H254" s="5">
         <v>2014</v>
       </c>
+      <c r="J254" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L254" s="5" t="s">
         <v>208</v>
       </c>
@@ -10707,7 +10971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>288</v>
       </c>
@@ -10732,6 +10996,9 @@
       <c r="H255" s="5">
         <v>2014</v>
       </c>
+      <c r="J255" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="L255" s="5" t="s">
         <v>208</v>
       </c>
@@ -10739,7 +11006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>299</v>
       </c>
@@ -10758,14 +11025,14 @@
       <c r="H256">
         <v>2013</v>
       </c>
-      <c r="J256" t="s">
-        <v>366</v>
+      <c r="J256" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L256" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>300</v>
       </c>
@@ -10784,14 +11051,14 @@
       <c r="H257">
         <v>2013</v>
       </c>
-      <c r="J257" t="s">
-        <v>366</v>
+      <c r="J257" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L257" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>301</v>
       </c>
@@ -10810,14 +11077,14 @@
       <c r="H258">
         <v>2013</v>
       </c>
-      <c r="J258" t="s">
-        <v>366</v>
+      <c r="J258" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L258" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>302</v>
       </c>
@@ -10836,14 +11103,14 @@
       <c r="H259">
         <v>2014</v>
       </c>
-      <c r="J259" t="s">
-        <v>366</v>
+      <c r="J259" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L259" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>303</v>
       </c>
@@ -10862,14 +11129,14 @@
       <c r="H260">
         <v>2014</v>
       </c>
-      <c r="J260" t="s">
-        <v>366</v>
+      <c r="J260" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L260" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>304</v>
       </c>
@@ -10888,14 +11155,14 @@
       <c r="H261">
         <v>2015</v>
       </c>
-      <c r="J261" t="s">
-        <v>366</v>
+      <c r="J261" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L261" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>305</v>
       </c>
@@ -10914,14 +11181,14 @@
       <c r="H262">
         <v>2015</v>
       </c>
-      <c r="J262" t="s">
-        <v>366</v>
+      <c r="J262" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L262" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>306</v>
       </c>
@@ -10941,13 +11208,13 @@
         <v>2014</v>
       </c>
       <c r="J263" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L263" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>307</v>
       </c>
@@ -10967,13 +11234,13 @@
         <v>2015</v>
       </c>
       <c r="J264" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L264" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>308</v>
       </c>
@@ -10993,13 +11260,13 @@
         <v>2013</v>
       </c>
       <c r="J265" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L265" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>309</v>
       </c>
@@ -11019,13 +11286,13 @@
         <v>2013</v>
       </c>
       <c r="J266" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L266" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>310</v>
       </c>
@@ -11045,13 +11312,13 @@
         <v>2014</v>
       </c>
       <c r="J267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L267" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>311</v>
       </c>
@@ -11071,13 +11338,13 @@
         <v>2014</v>
       </c>
       <c r="J268" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L268" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>312</v>
       </c>
@@ -11097,13 +11364,13 @@
         <v>2015</v>
       </c>
       <c r="J269" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L269" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>313</v>
       </c>
@@ -11122,14 +11389,14 @@
       <c r="H270">
         <v>2013</v>
       </c>
-      <c r="J270" t="s">
-        <v>366</v>
+      <c r="J270" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L270" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>314</v>
       </c>
@@ -11148,14 +11415,14 @@
       <c r="H271">
         <v>2013</v>
       </c>
-      <c r="J271" t="s">
-        <v>366</v>
+      <c r="J271" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L271" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>315</v>
       </c>
@@ -11174,14 +11441,14 @@
       <c r="H272">
         <v>2013</v>
       </c>
-      <c r="J272" t="s">
-        <v>366</v>
+      <c r="J272" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L272" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>316</v>
       </c>
@@ -11200,14 +11467,14 @@
       <c r="H273">
         <v>2014</v>
       </c>
-      <c r="J273" t="s">
-        <v>366</v>
+      <c r="J273" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L273" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>317</v>
       </c>
@@ -11226,14 +11493,14 @@
       <c r="H274">
         <v>2014</v>
       </c>
-      <c r="J274" t="s">
-        <v>366</v>
+      <c r="J274" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L274" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>318</v>
       </c>
@@ -11252,14 +11519,14 @@
       <c r="H275">
         <v>2015</v>
       </c>
-      <c r="J275" t="s">
-        <v>366</v>
+      <c r="J275" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L275" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>319</v>
       </c>
@@ -11278,14 +11545,14 @@
       <c r="H276">
         <v>2015</v>
       </c>
-      <c r="J276" t="s">
-        <v>366</v>
+      <c r="J276" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L276" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>320</v>
       </c>
@@ -11305,13 +11572,13 @@
         <v>2013</v>
       </c>
       <c r="J277" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L277" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>321</v>
       </c>
@@ -11331,13 +11598,13 @@
         <v>2014</v>
       </c>
       <c r="J278" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L278" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>322</v>
       </c>
@@ -11357,13 +11624,13 @@
         <v>2014</v>
       </c>
       <c r="J279" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L279" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>323</v>
       </c>
@@ -11383,13 +11650,13 @@
         <v>2014</v>
       </c>
       <c r="J280" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L280" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>324</v>
       </c>
@@ -11409,13 +11676,13 @@
         <v>2014</v>
       </c>
       <c r="J281" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L281" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>325</v>
       </c>
@@ -11435,13 +11702,13 @@
         <v>2014</v>
       </c>
       <c r="J282" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L282" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>326</v>
       </c>
@@ -11461,13 +11728,13 @@
         <v>2015</v>
       </c>
       <c r="J283" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L283" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>327</v>
       </c>
@@ -11487,13 +11754,13 @@
         <v>2015</v>
       </c>
       <c r="J284" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L284" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>328</v>
       </c>
@@ -11513,13 +11780,13 @@
         <v>2015</v>
       </c>
       <c r="J285" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L285" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>329</v>
       </c>
@@ -11539,13 +11806,13 @@
         <v>2015</v>
       </c>
       <c r="J286" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L286" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>330</v>
       </c>
@@ -11565,13 +11832,13 @@
         <v>2015</v>
       </c>
       <c r="J287" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L287" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>331</v>
       </c>
@@ -11591,13 +11858,13 @@
         <v>2013</v>
       </c>
       <c r="J288" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L288" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>332</v>
       </c>
@@ -11617,13 +11884,13 @@
         <v>2013</v>
       </c>
       <c r="J289" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L289" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>333</v>
       </c>
@@ -11643,13 +11910,13 @@
         <v>2013</v>
       </c>
       <c r="J290" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L290" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>334</v>
       </c>
@@ -11669,13 +11936,13 @@
         <v>2013</v>
       </c>
       <c r="J291" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L291" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>335</v>
       </c>
@@ -11695,13 +11962,13 @@
         <v>2013</v>
       </c>
       <c r="J292" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L292" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>336</v>
       </c>
@@ -11721,13 +11988,13 @@
         <v>2013</v>
       </c>
       <c r="J293" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L293" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>337</v>
       </c>
@@ -11747,13 +12014,13 @@
         <v>2013</v>
       </c>
       <c r="J294" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L294" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>338</v>
       </c>
@@ -11773,13 +12040,13 @@
         <v>2013</v>
       </c>
       <c r="J295" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L295" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>339</v>
       </c>
@@ -11798,14 +12065,14 @@
       <c r="H296">
         <v>2013</v>
       </c>
-      <c r="J296" t="s">
-        <v>366</v>
+      <c r="J296" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L296" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>340</v>
       </c>
@@ -11824,14 +12091,14 @@
       <c r="H297">
         <v>2013</v>
       </c>
-      <c r="J297" t="s">
-        <v>366</v>
+      <c r="J297" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L297" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>341</v>
       </c>
@@ -11850,14 +12117,14 @@
       <c r="H298">
         <v>2014</v>
       </c>
-      <c r="J298" t="s">
-        <v>366</v>
+      <c r="J298" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L298" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>342</v>
       </c>
@@ -11876,14 +12143,14 @@
       <c r="H299">
         <v>2014</v>
       </c>
-      <c r="J299" t="s">
-        <v>366</v>
+      <c r="J299" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L299" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>343</v>
       </c>
@@ -11902,14 +12169,14 @@
       <c r="H300">
         <v>2015</v>
       </c>
-      <c r="J300" t="s">
-        <v>366</v>
+      <c r="J300" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L300" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>344</v>
       </c>
@@ -11928,14 +12195,14 @@
       <c r="H301">
         <v>2015</v>
       </c>
-      <c r="J301" t="s">
-        <v>366</v>
+      <c r="J301" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L301" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>345</v>
       </c>
@@ -11954,14 +12221,14 @@
       <c r="H302">
         <v>2013</v>
       </c>
-      <c r="J302" t="s">
-        <v>366</v>
+      <c r="J302" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L302" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>346</v>
       </c>
@@ -11980,14 +12247,14 @@
       <c r="H303" s="1">
         <v>2015</v>
       </c>
-      <c r="J303" s="1" t="s">
-        <v>366</v>
+      <c r="J303" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L303" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>347</v>
       </c>
@@ -12007,13 +12274,13 @@
         <v>2015</v>
       </c>
       <c r="J304" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L304" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>348</v>
       </c>
@@ -12033,13 +12300,13 @@
         <v>2015</v>
       </c>
       <c r="J305" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L305" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>349</v>
       </c>
@@ -12058,14 +12325,14 @@
       <c r="H306">
         <v>2013</v>
       </c>
-      <c r="J306" t="s">
-        <v>366</v>
+      <c r="J306" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L306" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>350</v>
       </c>
@@ -12085,13 +12352,13 @@
         <v>2013</v>
       </c>
       <c r="J307" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L307" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>351</v>
       </c>
@@ -12111,13 +12378,13 @@
         <v>2013</v>
       </c>
       <c r="J308" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L308" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>352</v>
       </c>
@@ -12136,14 +12403,14 @@
       <c r="H309">
         <v>2014</v>
       </c>
-      <c r="J309" t="s">
-        <v>366</v>
+      <c r="J309" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L309" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>353</v>
       </c>
@@ -12162,14 +12429,14 @@
       <c r="H310">
         <v>2014</v>
       </c>
-      <c r="J310" t="s">
-        <v>366</v>
+      <c r="J310" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L310" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>354</v>
       </c>
@@ -12189,13 +12456,13 @@
         <v>2014</v>
       </c>
       <c r="J311" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L311" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>355</v>
       </c>
@@ -12215,13 +12482,13 @@
         <v>2014</v>
       </c>
       <c r="J312" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L312" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>356</v>
       </c>
@@ -12240,14 +12507,14 @@
       <c r="H313">
         <v>2015</v>
       </c>
-      <c r="J313" t="s">
-        <v>366</v>
+      <c r="J313" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L313" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>357</v>
       </c>
@@ -12266,14 +12533,14 @@
       <c r="H314">
         <v>2013</v>
       </c>
-      <c r="J314" t="s">
-        <v>366</v>
+      <c r="J314" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L314" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>358</v>
       </c>
@@ -12292,14 +12559,14 @@
       <c r="H315">
         <v>2013</v>
       </c>
-      <c r="J315" t="s">
-        <v>366</v>
+      <c r="J315" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L315" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>359</v>
       </c>
@@ -12318,14 +12585,14 @@
       <c r="H316">
         <v>2013</v>
       </c>
-      <c r="J316" t="s">
-        <v>366</v>
+      <c r="J316" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L316" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>360</v>
       </c>
@@ -12344,14 +12611,14 @@
       <c r="H317">
         <v>2014</v>
       </c>
-      <c r="J317" t="s">
-        <v>366</v>
+      <c r="J317" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L317" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>361</v>
       </c>
@@ -12370,14 +12637,14 @@
       <c r="H318">
         <v>2014</v>
       </c>
-      <c r="J318" t="s">
-        <v>366</v>
+      <c r="J318" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L318" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>362</v>
       </c>
@@ -12396,14 +12663,14 @@
       <c r="H319">
         <v>2015</v>
       </c>
-      <c r="J319" t="s">
-        <v>366</v>
+      <c r="J319" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L319" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>363</v>
       </c>
@@ -12422,21 +12689,15 @@
       <c r="H320">
         <v>2015</v>
       </c>
-      <c r="J320" t="s">
-        <v>366</v>
+      <c r="J320" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="L320" s="2" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C320" xr:uid="{0ACEFF3B-9C16-F94B-966B-19B6EC453895}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="0.0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="J1:J320" xr:uid="{BE962D7F-FA05-4B96-ABEE-426D4AA749B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>